--- a/taulukko.xlsx
+++ b/taulukko.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pasi/Documents/Nitor/Kehitys/Flask/streamlit/causal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729D51B4-4FA3-8942-B1F3-6E96119B3DD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B328F48C-DA21-0A40-9969-69606CC48F93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8460" yWindow="6720" windowWidth="28040" windowHeight="17440" xr2:uid="{50DD867C-437A-604C-B251-6021804D7C47}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Source</t>
   </si>
@@ -42,24 +42,6 @@
   </si>
   <si>
     <t>Polarity</t>
-  </si>
-  <si>
-    <t>passo</t>
-  </si>
-  <si>
-    <t>maarit</t>
-  </si>
-  <si>
-    <t>rami</t>
-  </si>
-  <si>
-    <t>krisi</t>
-  </si>
-  <si>
-    <t>henkka</t>
-  </si>
-  <si>
-    <t>ville</t>
   </si>
 </sst>
 </file>
@@ -414,7 +396,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -436,60 +418,60 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>6</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/taulukko.xlsx
+++ b/taulukko.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pasi/Documents/Nitor/Kehitys/Flask/streamlit/causal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B328F48C-DA21-0A40-9969-69606CC48F93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C6C1CC-96DA-3F45-8BDD-C5DF999A6750}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8460" yWindow="6720" windowWidth="28040" windowHeight="17440" xr2:uid="{50DD867C-437A-604C-B251-6021804D7C47}"/>
   </bookViews>
@@ -33,7 +33,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+  <si>
+    <t>Birth rate of Lynx</t>
+  </si>
+  <si>
+    <t>Lynx population</t>
+  </si>
+  <si>
+    <t>Death rate of Lynx</t>
+  </si>
+  <si>
+    <t>Food supply of Lynx</t>
+  </si>
   <si>
     <t>Source</t>
   </si>
@@ -42,6 +54,9 @@
   </si>
   <si>
     <t>Polarity</t>
+  </si>
+  <si>
+    <t>Starvation of Lynx</t>
   </si>
 </sst>
 </file>
@@ -396,7 +411,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -408,69 +423,78 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="C3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="C4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
     </row>
